--- a/pyJp/mtcars.xlsx
+++ b/pyJp/mtcars.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,11 +494,6 @@
           <t>carname</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>dom</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -543,9 +534,6 @@
           <t>Lincoln Continental</t>
         </is>
       </c>
-      <c r="M2" s="2" t="n">
-        <v>43951</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -586,9 +574,6 @@
           <t>Cadillac Fleetwood</t>
         </is>
       </c>
-      <c r="M3" s="2" t="n">
-        <v>44086</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -629,9 +614,6 @@
           <t>Camaro Z28</t>
         </is>
       </c>
-      <c r="M4" s="2" t="n">
-        <v>44341</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -672,9 +654,6 @@
           <t>Duster 360</t>
         </is>
       </c>
-      <c r="M5" s="2" t="n">
-        <v>44635</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -715,9 +694,6 @@
           <t>Chrysler Imperial</t>
         </is>
       </c>
-      <c r="M6" s="2" t="n">
-        <v>44145</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -758,9 +734,6 @@
           <t>Maserati Bora</t>
         </is>
       </c>
-      <c r="M7" s="2" t="n">
-        <v>45035</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -801,9 +774,6 @@
           <t>Merc 450SLC</t>
         </is>
       </c>
-      <c r="M8" s="2" t="n">
-        <v>44570</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -844,9 +814,6 @@
           <t>AMC Javelin</t>
         </is>
       </c>
-      <c r="M9" s="2" t="n">
-        <v>44656</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -887,9 +854,6 @@
           <t>Dodge Challenger</t>
         </is>
       </c>
-      <c r="M10" s="2" t="n">
-        <v>44217</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -930,9 +894,6 @@
           <t>Ford Pantera L</t>
         </is>
       </c>
-      <c r="M11" s="2" t="n">
-        <v>45064</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -973,9 +934,6 @@
           <t>Merc 450SE</t>
         </is>
       </c>
-      <c r="M12" s="2" t="n">
-        <v>44913</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1016,9 +974,6 @@
           <t>Merc 450SL</t>
         </is>
       </c>
-      <c r="M13" s="2" t="n">
-        <v>44582</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1059,9 +1014,6 @@
           <t>Merc 280C</t>
         </is>
       </c>
-      <c r="M14" s="2" t="n">
-        <v>44620</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1102,9 +1054,6 @@
           <t>Valiant</t>
         </is>
       </c>
-      <c r="M15" s="2" t="n">
-        <v>45052</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1145,9 +1094,6 @@
           <t>Hornet Sportabout</t>
         </is>
       </c>
-      <c r="M16" s="2" t="n">
-        <v>45099</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1188,9 +1134,6 @@
           <t>Merc 280</t>
         </is>
       </c>
-      <c r="M17" s="2" t="n">
-        <v>43873</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1231,9 +1174,6 @@
           <t>Pontiac Firebird</t>
         </is>
       </c>
-      <c r="M18" s="2" t="n">
-        <v>44803</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1274,9 +1214,6 @@
           <t>Ferrari Dino</t>
         </is>
       </c>
-      <c r="M19" s="2" t="n">
-        <v>43914</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1317,9 +1254,6 @@
           <t>Mazda RX4</t>
         </is>
       </c>
-      <c r="M20" s="2" t="n">
-        <v>44304</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1360,9 +1294,6 @@
           <t>Mazda RX4 Wag</t>
         </is>
       </c>
-      <c r="M21" s="2" t="n">
-        <v>44000</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1403,9 +1334,6 @@
           <t>Hornet 4 Drive</t>
         </is>
       </c>
-      <c r="M22" s="2" t="n">
-        <v>44309</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1446,9 +1374,6 @@
           <t>Volvo 142E</t>
         </is>
       </c>
-      <c r="M23" s="2" t="n">
-        <v>45183</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1489,9 +1414,6 @@
           <t>Toyota Corona</t>
         </is>
       </c>
-      <c r="M24" s="2" t="n">
-        <v>44971</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1532,9 +1454,6 @@
           <t>Merc 230</t>
         </is>
       </c>
-      <c r="M25" s="2" t="n">
-        <v>44819</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1575,9 +1494,6 @@
           <t>Datsun 710</t>
         </is>
       </c>
-      <c r="M26" s="2" t="n">
-        <v>43940</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1618,9 +1534,6 @@
           <t>Merc 240D</t>
         </is>
       </c>
-      <c r="M27" s="2" t="n">
-        <v>44899</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1661,9 +1574,6 @@
           <t>Porsche 914-2</t>
         </is>
       </c>
-      <c r="M28" s="2" t="n">
-        <v>44693</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1704,9 +1614,6 @@
           <t>Fiat X1-9</t>
         </is>
       </c>
-      <c r="M29" s="2" t="n">
-        <v>43953</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1747,9 +1654,6 @@
           <t>Lotus Europa</t>
         </is>
       </c>
-      <c r="M30" s="2" t="n">
-        <v>44897</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1790,9 +1694,6 @@
           <t>Honda Civic</t>
         </is>
       </c>
-      <c r="M31" s="2" t="n">
-        <v>44800</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1833,9 +1734,6 @@
           <t>Fiat 128</t>
         </is>
       </c>
-      <c r="M32" s="2" t="n">
-        <v>44742</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1875,9 +1773,6 @@
         <is>
           <t>Toyota Corolla</t>
         </is>
-      </c>
-      <c r="M33" s="2" t="n">
-        <v>44718</v>
       </c>
     </row>
   </sheetData>
